--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Thbs1-Itgb3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Thbs1-Itgb3.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H2">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I2">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J2">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N2">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O2">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P2">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q2">
-        <v>2.280473380970371</v>
+        <v>31.77978570772256</v>
       </c>
       <c r="R2">
-        <v>2.280473380970371</v>
+        <v>286.018071369503</v>
       </c>
       <c r="S2">
-        <v>0.0001788336345462207</v>
+        <v>0.001642819644860576</v>
       </c>
       <c r="T2">
-        <v>0.0001788336345462207</v>
+        <v>0.001642819644860576</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H3">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I3">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J3">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N3">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O3">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P3">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q3">
-        <v>13.34002795980953</v>
+        <v>37.49195085790489</v>
       </c>
       <c r="R3">
-        <v>13.34002795980953</v>
+        <v>337.427557721144</v>
       </c>
       <c r="S3">
-        <v>0.001046118628223505</v>
+        <v>0.001938103483767242</v>
       </c>
       <c r="T3">
-        <v>0.001046118628223505</v>
+        <v>0.001938103483767242</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H4">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I4">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J4">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N4">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O4">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P4">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q4">
-        <v>1.10732763166858</v>
+        <v>4.798730290988333</v>
       </c>
       <c r="R4">
-        <v>1.10732763166858</v>
+        <v>43.18857261889499</v>
       </c>
       <c r="S4">
-        <v>8.683610458127235E-05</v>
+        <v>0.0002480648694401815</v>
       </c>
       <c r="T4">
-        <v>8.683610458127235E-05</v>
+        <v>0.0002480648694401815</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H5">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I5">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J5">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N5">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O5">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P5">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q5">
-        <v>2.1881397888341</v>
+        <v>7.147422468817889</v>
       </c>
       <c r="R5">
-        <v>2.1881397888341</v>
+        <v>64.326802219361</v>
       </c>
       <c r="S5">
-        <v>0.0001715928783022643</v>
+        <v>0.0003694778231005691</v>
       </c>
       <c r="T5">
-        <v>0.0001715928783022643</v>
+        <v>0.000369477823100569</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H6">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I6">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J6">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N6">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O6">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P6">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q6">
-        <v>59.54750658104886</v>
+        <v>171.5107079543513</v>
       </c>
       <c r="R6">
-        <v>59.54750658104886</v>
+        <v>1543.596371589162</v>
       </c>
       <c r="S6">
-        <v>0.004669687056606921</v>
+        <v>0.008866049724900597</v>
       </c>
       <c r="T6">
-        <v>0.004669687056606921</v>
+        <v>0.008866049724900595</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H7">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I7">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J7">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N7">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O7">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P7">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q7">
-        <v>1.17317442360858</v>
+        <v>3.980768294985778</v>
       </c>
       <c r="R7">
-        <v>1.17317442360858</v>
+        <v>35.826914654872</v>
       </c>
       <c r="S7">
-        <v>9.199977859040657E-05</v>
+        <v>0.0002057812603516587</v>
       </c>
       <c r="T7">
-        <v>9.199977859040657E-05</v>
+        <v>0.0002057812603516587</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H8">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I8">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J8">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N8">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O8">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P8">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q8">
-        <v>39.42535026696381</v>
+        <v>199.8204946055678</v>
       </c>
       <c r="R8">
-        <v>39.42535026696381</v>
+        <v>1798.38445145011</v>
       </c>
       <c r="S8">
-        <v>0.003091717158522078</v>
+        <v>0.01032949174053158</v>
       </c>
       <c r="T8">
-        <v>0.003091717158522078</v>
+        <v>0.01032949174053157</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H9">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I9">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J9">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N9">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O9">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P9">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q9">
-        <v>230.6254829700266</v>
+        <v>235.7366482283645</v>
       </c>
       <c r="R9">
-        <v>230.6254829700266</v>
+        <v>2121.62983405528</v>
       </c>
       <c r="S9">
-        <v>0.01808554034555654</v>
+        <v>0.01218613618999439</v>
       </c>
       <c r="T9">
-        <v>0.01808554034555654</v>
+        <v>0.01218613618999439</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H10">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I10">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J10">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N10">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O10">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P10">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q10">
-        <v>19.14373572746756</v>
+        <v>30.17278558901667</v>
       </c>
       <c r="R10">
-        <v>19.14373572746756</v>
+        <v>271.55507030115</v>
       </c>
       <c r="S10">
-        <v>0.001501242622476304</v>
+        <v>0.001559747613205505</v>
       </c>
       <c r="T10">
-        <v>0.001501242622476304</v>
+        <v>0.001559747613205505</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H11">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I11">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J11">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N11">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O11">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P11">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q11">
-        <v>37.82906581051887</v>
+        <v>44.94056398017445</v>
       </c>
       <c r="R11">
-        <v>37.82906581051887</v>
+        <v>404.46507582157</v>
       </c>
       <c r="S11">
-        <v>0.002966537293017919</v>
+        <v>0.002323151012934726</v>
       </c>
       <c r="T11">
-        <v>0.002966537293017919</v>
+        <v>0.002323151012934726</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H12">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I12">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J12">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N12">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O12">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P12">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q12">
-        <v>1029.471040562295</v>
+        <v>1078.401056847327</v>
       </c>
       <c r="R12">
-        <v>1029.471040562295</v>
+        <v>9705.60951162594</v>
       </c>
       <c r="S12">
-        <v>0.08073062785126502</v>
+        <v>0.05574670822266396</v>
       </c>
       <c r="T12">
-        <v>0.08073062785126502</v>
+        <v>0.05574670822266395</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H13">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I13">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J13">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N13">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O13">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P13">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q13">
-        <v>20.2821102675316</v>
+        <v>25.02971847984889</v>
       </c>
       <c r="R13">
-        <v>20.2821102675316</v>
+        <v>225.26746631864</v>
       </c>
       <c r="S13">
-        <v>0.0015905134108018</v>
+        <v>0.001293882646100835</v>
       </c>
       <c r="T13">
-        <v>0.0015905134108018</v>
+        <v>0.001293882646100835</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H14">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I14">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J14">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N14">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O14">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P14">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q14">
-        <v>83.01100407371305</v>
+        <v>841.2925680026798</v>
       </c>
       <c r="R14">
-        <v>83.01100407371305</v>
+        <v>7571.633112024118</v>
       </c>
       <c r="S14">
-        <v>0.006509683335797777</v>
+        <v>0.04348965630231274</v>
       </c>
       <c r="T14">
-        <v>0.006509683335797777</v>
+        <v>0.04348965630231273</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H15">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I15">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J15">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N15">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O15">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P15">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q15">
-        <v>485.5873892481019</v>
+        <v>992.5082537297403</v>
       </c>
       <c r="R15">
-        <v>485.5873892481019</v>
+        <v>8932.574283567663</v>
       </c>
       <c r="S15">
-        <v>0.03807953139628283</v>
+        <v>0.05130657808423375</v>
       </c>
       <c r="T15">
-        <v>0.03807953139628283</v>
+        <v>0.05130657808423374</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H16">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I16">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J16">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N16">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O16">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P16">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q16">
-        <v>40.30758671002867</v>
+        <v>127.0347184460966</v>
       </c>
       <c r="R16">
-        <v>40.30758671002867</v>
+        <v>1143.31246601487</v>
       </c>
       <c r="S16">
-        <v>0.003160901719481647</v>
+        <v>0.006566914357508283</v>
       </c>
       <c r="T16">
-        <v>0.003160901719481647</v>
+        <v>0.006566914357508282</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H17">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I17">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J17">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N17">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O17">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P17">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q17">
-        <v>79.64998953308155</v>
+        <v>189.2106340393184</v>
       </c>
       <c r="R17">
-        <v>79.64998953308155</v>
+        <v>1702.895706353866</v>
       </c>
       <c r="S17">
-        <v>0.006246114179025569</v>
+        <v>0.009781027143325988</v>
       </c>
       <c r="T17">
-        <v>0.006246114179025569</v>
+        <v>0.009781027143325986</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H18">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I18">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J18">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N18">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O18">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P18">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q18">
-        <v>2167.575536126429</v>
+        <v>4540.329040035374</v>
       </c>
       <c r="R18">
-        <v>2167.575536126429</v>
+        <v>40862.96136031837</v>
       </c>
       <c r="S18">
-        <v>0.1699802394159139</v>
+        <v>0.2347071125557822</v>
       </c>
       <c r="T18">
-        <v>0.1699802394159139</v>
+        <v>0.2347071125557821</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H19">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I19">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J19">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N19">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O19">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P19">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q19">
-        <v>42.704461130745</v>
+        <v>105.3811631177369</v>
       </c>
       <c r="R19">
-        <v>42.704461130745</v>
+        <v>948.4304680596319</v>
       </c>
       <c r="S19">
-        <v>0.003348863468031054</v>
+        <v>0.00544755860093814</v>
       </c>
       <c r="T19">
-        <v>0.003348863468031054</v>
+        <v>0.005447558600938139</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H20">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I20">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J20">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N20">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O20">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P20">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q20">
-        <v>70.89312768287358</v>
+        <v>402.1643335186899</v>
       </c>
       <c r="R20">
-        <v>70.89312768287358</v>
+        <v>3619.47900166821</v>
       </c>
       <c r="S20">
-        <v>0.005559405250537454</v>
+        <v>0.02078942487665098</v>
       </c>
       <c r="T20">
-        <v>0.005559405250537454</v>
+        <v>0.02078942487665098</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H21">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I21">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J21">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N21">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O21">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P21">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q21">
-        <v>414.701751548385</v>
+        <v>474.4501919476702</v>
       </c>
       <c r="R21">
-        <v>414.701751548385</v>
+        <v>4270.051727529032</v>
       </c>
       <c r="S21">
-        <v>0.03252071350665113</v>
+        <v>0.02452615958483632</v>
       </c>
       <c r="T21">
-        <v>0.03252071350665113</v>
+        <v>0.02452615958483632</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H22">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I22">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J22">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N22">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O22">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P22">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q22">
-        <v>34.42351918409635</v>
+        <v>60.72659479079833</v>
       </c>
       <c r="R22">
-        <v>34.42351918409635</v>
+        <v>546.539353117185</v>
       </c>
       <c r="S22">
-        <v>0.00269947595132376</v>
+        <v>0.003139191805927402</v>
       </c>
       <c r="T22">
-        <v>0.00269947595132376</v>
+        <v>0.003139191805927402</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H23">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I23">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J23">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N23">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O23">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P23">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q23">
-        <v>68.02275121132291</v>
+        <v>90.44863989910924</v>
       </c>
       <c r="R23">
-        <v>68.02275121132291</v>
+        <v>814.037759091983</v>
       </c>
       <c r="S23">
-        <v>0.005334311697064385</v>
+        <v>0.004675638905930976</v>
       </c>
       <c r="T23">
-        <v>0.005334311697064385</v>
+        <v>0.004675638905930977</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H24">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I24">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J24">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N24">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O24">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P24">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q24">
-        <v>1851.154686774176</v>
+        <v>2170.420222154587</v>
       </c>
       <c r="R24">
-        <v>1851.154686774176</v>
+        <v>19533.78199939129</v>
       </c>
       <c r="S24">
-        <v>0.1451666673707154</v>
+        <v>0.1121973889739528</v>
       </c>
       <c r="T24">
-        <v>0.1451666673707154</v>
+        <v>0.1121973889739528</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H25">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I25">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J25">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N25">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O25">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P25">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q25">
-        <v>36.47049989760232</v>
+        <v>50.37551363526845</v>
       </c>
       <c r="R25">
-        <v>36.47049989760232</v>
+        <v>453.3796227174161</v>
       </c>
       <c r="S25">
-        <v>0.002859999202284279</v>
+        <v>0.002604104514142475</v>
       </c>
       <c r="T25">
-        <v>0.002859999202284279</v>
+        <v>0.002604104514142475</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H26">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I26">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J26">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N26">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O26">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P26">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q26">
-        <v>154.3643033749159</v>
+        <v>842.0306673639714</v>
       </c>
       <c r="R26">
-        <v>154.3643033749159</v>
+        <v>7578.276006275742</v>
       </c>
       <c r="S26">
-        <v>0.01210517502510165</v>
+        <v>0.04352781150391607</v>
       </c>
       <c r="T26">
-        <v>0.01210517502510165</v>
+        <v>0.04352781150391607</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H27">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I27">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J27">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N27">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O27">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P27">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q27">
-        <v>902.9809951746382</v>
+        <v>993.3790206139573</v>
       </c>
       <c r="R27">
-        <v>902.9809951746382</v>
+        <v>8940.411185525616</v>
       </c>
       <c r="S27">
-        <v>0.07081133883901364</v>
+        <v>0.05135159138157445</v>
       </c>
       <c r="T27">
-        <v>0.07081133883901364</v>
+        <v>0.05135159138157444</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H28">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I28">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J28">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N28">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O28">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P28">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q28">
-        <v>74.95455105798341</v>
+        <v>127.14617104667</v>
       </c>
       <c r="R28">
-        <v>74.95455105798341</v>
+        <v>1144.31553942003</v>
       </c>
       <c r="S28">
-        <v>0.005877900133951882</v>
+        <v>0.006572675772118708</v>
       </c>
       <c r="T28">
-        <v>0.005877900133951882</v>
+        <v>0.006572675772118708</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H29">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I29">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J29">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N29">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O29">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P29">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q29">
-        <v>148.1142805738805</v>
+        <v>189.3766360384393</v>
       </c>
       <c r="R29">
-        <v>148.1142805738805</v>
+        <v>1704.389724345954</v>
       </c>
       <c r="S29">
-        <v>0.01161505121886353</v>
+        <v>0.009789608426653383</v>
       </c>
       <c r="T29">
-        <v>0.01161505121886353</v>
+        <v>0.009789608426653383</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H30">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I30">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J30">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N30">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O30">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P30">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q30">
-        <v>4030.746180946654</v>
+        <v>4544.312450910452</v>
       </c>
       <c r="R30">
-        <v>4030.746180946654</v>
+        <v>40898.81205819407</v>
       </c>
       <c r="S30">
-        <v>0.3160891924839153</v>
+        <v>0.2349130304212868</v>
       </c>
       <c r="T30">
-        <v>0.3160891924839153</v>
+        <v>0.2349130304212868</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H31">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I31">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J31">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N31">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O31">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P31">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q31">
-        <v>79.41169326894233</v>
+        <v>105.4736181947787</v>
       </c>
       <c r="R31">
-        <v>79.41169326894233</v>
+        <v>949.2625637530081</v>
       </c>
       <c r="S31">
-        <v>0.006227427099680371</v>
+        <v>0.005452337960315457</v>
       </c>
       <c r="T31">
-        <v>0.006227427099680371</v>
+        <v>0.005452337960315456</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H32">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I32">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J32">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N32">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O32">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P32">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q32">
-        <v>15.18963558434839</v>
+        <v>77.71809759420388</v>
       </c>
       <c r="R32">
-        <v>15.18963558434839</v>
+        <v>699.462878347835</v>
       </c>
       <c r="S32">
-        <v>0.001191163975711814</v>
+        <v>0.00401754809372185</v>
       </c>
       <c r="T32">
-        <v>0.001191163975711814</v>
+        <v>0.00401754809372185</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H33">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I33">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J33">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N33">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O33">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P33">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q33">
-        <v>88.85443043772932</v>
+        <v>91.68731100234221</v>
       </c>
       <c r="R33">
-        <v>88.85443043772932</v>
+        <v>825.18579902108</v>
       </c>
       <c r="S33">
-        <v>0.006967922043427671</v>
+        <v>0.004739670590745573</v>
       </c>
       <c r="T33">
-        <v>0.006967922043427671</v>
+        <v>0.004739670590745571</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H34">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I34">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J34">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N34">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O34">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P34">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q34">
-        <v>7.375619175334639</v>
+        <v>11.73539030480833</v>
       </c>
       <c r="R34">
-        <v>7.375619175334639</v>
+        <v>105.618512743275</v>
       </c>
       <c r="S34">
-        <v>0.0005783925369006663</v>
+        <v>0.0006066475686826486</v>
       </c>
       <c r="T34">
-        <v>0.0005783925369006663</v>
+        <v>0.0006066475686826485</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H35">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I35">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J35">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N35">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O35">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P35">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q35">
-        <v>14.57462572348037</v>
+        <v>17.47916370762722</v>
       </c>
       <c r="R35">
-        <v>14.57462572348037</v>
+        <v>157.312473368645</v>
       </c>
       <c r="S35">
-        <v>0.001142935195837176</v>
+        <v>0.0009035653600284093</v>
       </c>
       <c r="T35">
-        <v>0.001142935195837176</v>
+        <v>0.0009035653600284092</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H36">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I36">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J36">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N36">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O36">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P36">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q36">
-        <v>396.6303366969542</v>
+        <v>419.4328452003433</v>
       </c>
       <c r="R36">
-        <v>396.6303366969542</v>
+        <v>3774.89560680309</v>
       </c>
       <c r="S36">
-        <v>0.0311035617756808</v>
+        <v>0.02168210082132328</v>
       </c>
       <c r="T36">
-        <v>0.0311035617756808</v>
+        <v>0.02168210082132328</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H37">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I37">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J37">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N37">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O37">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P37">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q37">
-        <v>7.814207401057067</v>
+        <v>9.735047986004444</v>
       </c>
       <c r="R37">
-        <v>7.814207401057067</v>
+        <v>87.61543187404</v>
       </c>
       <c r="S37">
-        <v>0.0006127864163160645</v>
+        <v>0.0005032421622396962</v>
       </c>
       <c r="T37">
-        <v>0.0006127864163160645</v>
+        <v>0.0005032421622396961</v>
       </c>
     </row>
   </sheetData>
